--- a/studentData.xlsx
+++ b/studentData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bhuvansa/Desktop/Projects/Whatsappbot/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bhuvansa/Desktop/Projects/Whatsappbot/WhatsappMarksBot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA345033-918F-2F44-B462-2EABF5B61755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C98B450-C02F-5B4D-AC96-748028DA6D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10360" yWindow="2340" windowWidth="28040" windowHeight="17440" xr2:uid="{97D3F370-205C-F646-9108-9BEEA5947E35}"/>
   </bookViews>
@@ -441,7 +441,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -525,7 +525,7 @@
         <v>74</v>
       </c>
       <c r="L2">
-        <v>8050158461</v>
+        <v>987654321</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -563,7 +563,7 @@
         <v>74</v>
       </c>
       <c r="L3">
-        <v>8310659391</v>
+        <v>987654321</v>
       </c>
     </row>
   </sheetData>

--- a/studentData.xlsx
+++ b/studentData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bhuvansa/Desktop/Projects/Whatsappbot/WhatsappMarksBot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C98B450-C02F-5B4D-AC96-748028DA6D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F354C3-CB6A-094E-BB05-5DAE001DD958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10360" yWindow="2340" windowWidth="28040" windowHeight="17440" xr2:uid="{97D3F370-205C-F646-9108-9BEEA5947E35}"/>
+    <workbookView xWindow="760" yWindow="560" windowWidth="28040" windowHeight="17440" xr2:uid="{97D3F370-205C-F646-9108-9BEEA5947E35}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,28 +59,28 @@
     <t>ADITYA SINHA</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>h</t>
+    <t>MATH</t>
+  </si>
+  <si>
+    <t>DSA</t>
+  </si>
+  <si>
+    <t>WEB</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>CIP</t>
+  </si>
+  <si>
+    <t>IIP</t>
+  </si>
+  <si>
+    <t>LAB</t>
   </si>
 </sst>
 </file>
@@ -441,7 +441,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -525,7 +525,7 @@
         <v>74</v>
       </c>
       <c r="L2">
-        <v>987654321</v>
+        <v>9876543210</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -563,7 +563,7 @@
         <v>74</v>
       </c>
       <c r="L3">
-        <v>987654321</v>
+        <v>9876543210</v>
       </c>
     </row>
   </sheetData>

--- a/studentData.xlsx
+++ b/studentData.xlsx
@@ -8,98 +8,306 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bhuvansa/Desktop/Projects/Whatsappbot/WhatsappMarksBot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F354C3-CB6A-094E-BB05-5DAE001DD958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C7E951F-A4A9-E243-90CD-AD153543A5BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="560" windowWidth="28040" windowHeight="17440" xr2:uid="{97D3F370-205C-F646-9108-9BEEA5947E35}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>USN</t>
-  </si>
-  <si>
-    <t>NAME</t>
-  </si>
-  <si>
-    <t>ATTENDANCE</t>
-  </si>
-  <si>
-    <t>PHONENO</t>
-  </si>
-  <si>
-    <t>1GA21AI012</t>
-  </si>
-  <si>
-    <t>BHUVAN S A</t>
-  </si>
-  <si>
-    <t>1GA21AI013</t>
-  </si>
-  <si>
-    <t>ADITYA SINHA</t>
-  </si>
-  <si>
-    <t>MATH</t>
-  </si>
-  <si>
-    <t>DSA</t>
-  </si>
-  <si>
-    <t>WEB</t>
-  </si>
-  <si>
-    <t>OS</t>
-  </si>
-  <si>
-    <t>SE</t>
-  </si>
-  <si>
-    <t>CIP</t>
-  </si>
-  <si>
-    <t>IIP</t>
-  </si>
-  <si>
-    <t>LAB</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="78">
+  <si>
+    <t>Global Academy of Technology,</t>
+  </si>
+  <si>
+    <t>Rajarajeshwarinagar,
+Ideal Homes Township,
+Bengaluru-560098</t>
+  </si>
+  <si>
+    <t>IA MarksList of Students</t>
+  </si>
+  <si>
+    <t>Degree: B.E</t>
+  </si>
+  <si>
+    <t>Class/Course: Semester 3 / Artificial Intelligence and Machine learning</t>
+  </si>
+  <si>
+    <t>Section:  A</t>
+  </si>
+  <si>
+    <t>Sl No</t>
+  </si>
+  <si>
+    <t>USN No.</t>
+  </si>
+  <si>
+    <t>Student Name</t>
+  </si>
+  <si>
+    <t>21AML32</t>
+  </si>
+  <si>
+    <t>21AML33</t>
+  </si>
+  <si>
+    <t>21AML34</t>
+  </si>
+  <si>
+    <t>21AML35</t>
+  </si>
+  <si>
+    <t>21AML371</t>
+  </si>
+  <si>
+    <t>21CIP36</t>
+  </si>
+  <si>
+    <t>21MAT31A</t>
+  </si>
+  <si>
+    <t>Whattsapp No</t>
+  </si>
+  <si>
+    <t>CIE1 (30)</t>
+  </si>
+  <si>
+    <t>Total (CIE)</t>
+  </si>
+  <si>
+    <t>CIE1 (40)</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>1GA21AI001</t>
+  </si>
+  <si>
+    <t>ABHI KRISHNAN</t>
+  </si>
+  <si>
+    <t>1GA21AI008</t>
+  </si>
+  <si>
+    <t>AMOGH B ACHAR</t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
+  <si>
+    <t>1GA21AI009</t>
+  </si>
+  <si>
+    <t>AMPAR KUSHAL  KOUNDINYA</t>
+  </si>
+  <si>
+    <t>1GA21AI027</t>
+  </si>
+  <si>
+    <t>M G RAJATH</t>
+  </si>
+  <si>
+    <t>1GA21AI028</t>
+  </si>
+  <si>
+    <t>MANDHARA  S BHUSHAN</t>
+  </si>
+  <si>
+    <t>1GA21AI030</t>
+  </si>
+  <si>
+    <t>MOHAN KUMAR  N</t>
+  </si>
+  <si>
+    <t>1GA21AI044</t>
+  </si>
+  <si>
+    <t>SADASIVUNI  KUVALESH</t>
+  </si>
+  <si>
+    <t>1GA21AI045</t>
+  </si>
+  <si>
+    <t>SAI DEEP K</t>
+  </si>
+  <si>
+    <t>1GA21AI046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAI SURAJ R </t>
+  </si>
+  <si>
+    <t>1GA21AI047</t>
+  </si>
+  <si>
+    <t>SANJANA  NAGARAJ</t>
+  </si>
+  <si>
+    <t>1GA21AI048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SANKESH M D </t>
+  </si>
+  <si>
+    <t>1GA21AI049</t>
+  </si>
+  <si>
+    <t>SHESHA SIMHA N M</t>
+  </si>
+  <si>
+    <t>1GA21AI050</t>
+  </si>
+  <si>
+    <t>SHREYA ASHOKA</t>
+  </si>
+  <si>
+    <t>1GA21AI051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHREYA KUMARAN </t>
+  </si>
+  <si>
+    <t>1GA21AI052</t>
+  </si>
+  <si>
+    <t>SINCHANA S</t>
+  </si>
+  <si>
+    <t>1GA21AI053</t>
+  </si>
+  <si>
+    <t>SOUNDARYA.B</t>
+  </si>
+  <si>
+    <t>1GA21AI054</t>
+  </si>
+  <si>
+    <t>SREEPATHI PANDITHARADHYULA SRIHARSHITH</t>
+  </si>
+  <si>
+    <t>1GA21AI055</t>
+  </si>
+  <si>
+    <t>SUGURESH</t>
+  </si>
+  <si>
+    <t>1GA21AI056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUMANTH RAO </t>
+  </si>
+  <si>
+    <t>1GA21AI057</t>
+  </si>
+  <si>
+    <t>SUSHMA S</t>
+  </si>
+  <si>
+    <t>1GA21AI058</t>
+  </si>
+  <si>
+    <t>SYED MOHAMMAD MUZAMMIL GANIHAR</t>
+  </si>
+  <si>
+    <t>1GA21AI059</t>
+  </si>
+  <si>
+    <t>TEJASWINI S</t>
+  </si>
+  <si>
+    <t>1GA21AI060</t>
+  </si>
+  <si>
+    <t>TEJUS GOURAV J</t>
+  </si>
+  <si>
+    <t>1GA21AI061</t>
+  </si>
+  <si>
+    <t>URAVAKONDA VARSHINI</t>
+  </si>
+  <si>
+    <t>1GA21AI062</t>
+  </si>
+  <si>
+    <t>UTHSAV D P</t>
+  </si>
+  <si>
+    <t>1GA21AI063</t>
+  </si>
+  <si>
+    <t>VARUN YADAV G</t>
+  </si>
+  <si>
+    <t>1GA21ME006</t>
+  </si>
+  <si>
+    <t>KARTHIK D G</t>
+  </si>
+  <si>
+    <t>"Outcome Based Education" software by contineo.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generated On 27-01-2023 10:57:48 By Contineo </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="1"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -110,9 +318,33 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -122,8 +354,39 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,137 +700,1775 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{388B5405-63C5-9C40-BE85-533194625315}">
-  <dimension ref="A1:L3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:T40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W29" sqref="W29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="19.5" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" customWidth="1"/>
-    <col min="11" max="11" width="14.1640625" customWidth="1"/>
-    <col min="12" max="12" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
+    <col min="4" max="18" width="12" customWidth="1"/>
+    <col min="19" max="19" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+    </row>
+    <row r="2" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+    </row>
+    <row r="3" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+    </row>
+    <row r="4" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+    </row>
+    <row r="5" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+    </row>
+    <row r="6" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+    </row>
+    <row r="9" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E9" s="7"/>
+      <c r="F9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G9" s="7"/>
+      <c r="H9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I9" s="7"/>
+      <c r="J9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K9" s="7"/>
+      <c r="L9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M9" s="7"/>
+      <c r="N9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="J1" t="s">
+      <c r="O9" s="7"/>
+      <c r="P9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="K1" t="s">
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R10" s="1"/>
+    </row>
+    <row r="11" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>1</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0</v>
+      </c>
+      <c r="L11" s="3">
+        <v>0</v>
+      </c>
+      <c r="M11" s="3">
+        <v>0</v>
+      </c>
+      <c r="N11" s="3">
+        <v>0</v>
+      </c>
+      <c r="O11" s="3">
+        <v>0</v>
+      </c>
+      <c r="P11" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>0</v>
+      </c>
+      <c r="S11" s="4">
+        <v>9344585275</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>8</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="3">
+        <v>30</v>
+      </c>
+      <c r="E12" s="3">
+        <v>30</v>
+      </c>
+      <c r="F12" s="3">
+        <v>30</v>
+      </c>
+      <c r="G12" s="3">
+        <v>30</v>
+      </c>
+      <c r="H12" s="3">
+        <v>36</v>
+      </c>
+      <c r="I12" s="3">
+        <v>36</v>
+      </c>
+      <c r="J12" s="3">
+        <v>40</v>
+      </c>
+      <c r="K12" s="3">
+        <v>40</v>
+      </c>
+      <c r="L12" s="3">
+        <v>25</v>
+      </c>
+      <c r="M12" s="3">
+        <v>25</v>
+      </c>
+      <c r="N12" s="3">
+        <v>37</v>
+      </c>
+      <c r="O12" s="3">
+        <v>37</v>
+      </c>
+      <c r="P12" s="3">
+        <v>35</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>35</v>
+      </c>
+      <c r="S12" s="4">
+        <v>8310659391</v>
+      </c>
+      <c r="T12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>9</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="3">
+        <v>12</v>
+      </c>
+      <c r="E13" s="3">
+        <v>12</v>
+      </c>
+      <c r="F13" s="3">
+        <v>15</v>
+      </c>
+      <c r="G13" s="3">
+        <v>15</v>
+      </c>
+      <c r="H13" s="3">
+        <v>21</v>
+      </c>
+      <c r="I13" s="3">
+        <v>21</v>
+      </c>
+      <c r="J13" s="3">
+        <v>19</v>
+      </c>
+      <c r="K13" s="3">
+        <v>19</v>
+      </c>
+      <c r="L13" s="3">
+        <v>27</v>
+      </c>
+      <c r="M13" s="3">
+        <v>27</v>
+      </c>
+      <c r="N13" s="3">
+        <v>20</v>
+      </c>
+      <c r="O13" s="3">
+        <v>20</v>
+      </c>
+      <c r="P13" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>1</v>
+      </c>
+      <c r="S13" s="4">
+        <v>7892806399</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>27</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="3">
+        <v>9</v>
+      </c>
+      <c r="E14" s="3">
+        <v>9</v>
+      </c>
+      <c r="F14" s="3">
+        <v>24</v>
+      </c>
+      <c r="G14" s="3">
+        <v>24</v>
+      </c>
+      <c r="H14" s="3">
+        <v>23</v>
+      </c>
+      <c r="I14" s="3">
+        <v>23</v>
+      </c>
+      <c r="J14" s="3">
+        <v>20</v>
+      </c>
+      <c r="K14" s="3">
+        <v>20</v>
+      </c>
+      <c r="L14" s="3">
+        <v>25</v>
+      </c>
+      <c r="M14" s="3">
+        <v>25</v>
+      </c>
+      <c r="N14" s="3">
+        <v>31</v>
+      </c>
+      <c r="O14" s="3">
+        <v>31</v>
+      </c>
+      <c r="P14" s="3">
+        <v>27</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>27</v>
+      </c>
+      <c r="S14" s="4">
+        <v>7019154743</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>28</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="3">
+        <v>18</v>
+      </c>
+      <c r="E15" s="3">
+        <v>18</v>
+      </c>
+      <c r="F15" s="3">
+        <v>23</v>
+      </c>
+      <c r="G15" s="3">
+        <v>23</v>
+      </c>
+      <c r="H15" s="3">
+        <v>10</v>
+      </c>
+      <c r="I15" s="3">
+        <v>10</v>
+      </c>
+      <c r="J15" s="3">
+        <v>14</v>
+      </c>
+      <c r="K15" s="3">
+        <v>14</v>
+      </c>
+      <c r="L15" s="3">
+        <v>28</v>
+      </c>
+      <c r="M15" s="3">
+        <v>28</v>
+      </c>
+      <c r="N15" s="3">
+        <v>30</v>
+      </c>
+      <c r="O15" s="3">
+        <v>30</v>
+      </c>
+      <c r="P15" s="3">
+        <v>25</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>25</v>
+      </c>
+      <c r="S15" s="5">
+        <v>8792529679</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>29</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="3">
+        <v>24</v>
+      </c>
+      <c r="E16" s="3">
+        <v>24</v>
+      </c>
+      <c r="F16" s="3">
+        <v>27</v>
+      </c>
+      <c r="G16" s="3">
+        <v>27</v>
+      </c>
+      <c r="H16" s="3">
+        <v>29</v>
+      </c>
+      <c r="I16" s="3">
+        <v>29</v>
+      </c>
+      <c r="J16" s="3">
+        <v>29</v>
+      </c>
+      <c r="K16" s="3">
+        <v>29</v>
+      </c>
+      <c r="L16" s="3">
+        <v>23</v>
+      </c>
+      <c r="M16" s="3">
+        <v>23</v>
+      </c>
+      <c r="N16" s="3">
+        <v>38</v>
+      </c>
+      <c r="O16" s="3">
+        <v>38</v>
+      </c>
+      <c r="P16" s="3">
+        <v>30</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>30</v>
+      </c>
+      <c r="S16" s="5">
+        <v>7975441021</v>
+      </c>
+      <c r="T16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>43</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
+        <v>24</v>
+      </c>
+      <c r="G17" s="3">
+        <v>24</v>
+      </c>
+      <c r="H17" s="3">
+        <v>25</v>
+      </c>
+      <c r="I17" s="3">
+        <v>25</v>
+      </c>
+      <c r="J17" s="3">
+        <v>28</v>
+      </c>
+      <c r="K17" s="3">
+        <v>28</v>
+      </c>
+      <c r="L17" s="3">
+        <v>29</v>
+      </c>
+      <c r="M17" s="3">
+        <v>29</v>
+      </c>
+      <c r="N17" s="3">
+        <v>40</v>
+      </c>
+      <c r="O17" s="3">
+        <v>40</v>
+      </c>
+      <c r="P17" s="3">
+        <v>30</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>30</v>
+      </c>
+      <c r="S17" s="5">
+        <v>9032218845</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
+        <v>44</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="3">
+        <v>27</v>
+      </c>
+      <c r="E18" s="3">
+        <v>27</v>
+      </c>
+      <c r="F18" s="3">
+        <v>30</v>
+      </c>
+      <c r="G18" s="3">
+        <v>30</v>
+      </c>
+      <c r="H18" s="3">
+        <v>39</v>
+      </c>
+      <c r="I18" s="3">
+        <v>39</v>
+      </c>
+      <c r="J18" s="3">
+        <v>37</v>
+      </c>
+      <c r="K18" s="3">
+        <v>37</v>
+      </c>
+      <c r="L18" s="3">
+        <v>33</v>
+      </c>
+      <c r="M18" s="3">
+        <v>33</v>
+      </c>
+      <c r="N18" s="3">
+        <v>40</v>
+      </c>
+      <c r="O18" s="3">
+        <v>40</v>
+      </c>
+      <c r="P18" s="3">
+        <v>40</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>40</v>
+      </c>
+      <c r="S18" s="5">
+        <v>9741342449</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
+        <v>45</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="3">
+        <v>17</v>
+      </c>
+      <c r="E19" s="3">
+        <v>17</v>
+      </c>
+      <c r="F19" s="3">
+        <v>27</v>
+      </c>
+      <c r="G19" s="3">
+        <v>27</v>
+      </c>
+      <c r="H19" s="3">
+        <v>29</v>
+      </c>
+      <c r="I19" s="3">
+        <v>29</v>
+      </c>
+      <c r="J19" s="3">
+        <v>35</v>
+      </c>
+      <c r="K19" s="3">
+        <v>35</v>
+      </c>
+      <c r="L19" s="3">
+        <v>27</v>
+      </c>
+      <c r="M19" s="3">
+        <v>27</v>
+      </c>
+      <c r="N19" s="3">
+        <v>39</v>
+      </c>
+      <c r="O19" s="3">
+        <v>39</v>
+      </c>
+      <c r="P19" s="3">
+        <v>32</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>32</v>
+      </c>
+      <c r="S19" s="4">
+        <v>8892469322</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
+        <v>46</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="3">
+        <v>13</v>
+      </c>
+      <c r="E20" s="3">
+        <v>13</v>
+      </c>
+      <c r="F20" s="3">
+        <v>15</v>
+      </c>
+      <c r="G20" s="3">
+        <v>15</v>
+      </c>
+      <c r="H20" s="3">
+        <v>27</v>
+      </c>
+      <c r="I20" s="3">
+        <v>27</v>
+      </c>
+      <c r="J20" s="3">
+        <v>26</v>
+      </c>
+      <c r="K20" s="3">
+        <v>26</v>
+      </c>
+      <c r="L20" s="3">
+        <v>15</v>
+      </c>
+      <c r="M20" s="3">
+        <v>15</v>
+      </c>
+      <c r="N20" s="3">
+        <v>32</v>
+      </c>
+      <c r="O20" s="3">
+        <v>32</v>
+      </c>
+      <c r="P20" s="3">
+        <v>11</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>11</v>
+      </c>
+      <c r="S20" s="4">
+        <v>9886027132</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="3">
+        <v>47</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="3">
+        <v>19</v>
+      </c>
+      <c r="E21" s="3">
+        <v>19</v>
+      </c>
+      <c r="F21" s="3">
+        <v>24</v>
+      </c>
+      <c r="G21" s="3">
+        <v>24</v>
+      </c>
+      <c r="H21" s="3">
+        <v>8</v>
+      </c>
+      <c r="I21" s="3">
+        <v>8</v>
+      </c>
+      <c r="J21" s="3">
+        <v>18</v>
+      </c>
+      <c r="K21" s="3">
+        <v>18</v>
+      </c>
+      <c r="L21" s="3">
+        <v>23</v>
+      </c>
+      <c r="M21" s="3">
+        <v>23</v>
+      </c>
+      <c r="N21" s="3">
+        <v>30</v>
+      </c>
+      <c r="O21" s="3">
+        <v>30</v>
+      </c>
+      <c r="P21" s="3">
+        <v>29</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>29</v>
+      </c>
+      <c r="S21" s="5">
+        <v>8453790708</v>
+      </c>
+      <c r="T21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
+        <v>48</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="3">
+        <v>21</v>
+      </c>
+      <c r="E22" s="3">
+        <v>21</v>
+      </c>
+      <c r="F22" s="3">
+        <v>29</v>
+      </c>
+      <c r="G22" s="3">
+        <v>29</v>
+      </c>
+      <c r="H22" s="3">
+        <v>32</v>
+      </c>
+      <c r="I22" s="3">
+        <v>32</v>
+      </c>
+      <c r="J22" s="3">
+        <v>30</v>
+      </c>
+      <c r="K22" s="3">
+        <v>30</v>
+      </c>
+      <c r="L22" s="3">
+        <v>27</v>
+      </c>
+      <c r="M22" s="3">
+        <v>27</v>
+      </c>
+      <c r="N22" s="3">
+        <v>38</v>
+      </c>
+      <c r="O22" s="3">
+        <v>38</v>
+      </c>
+      <c r="P22" s="3">
+        <v>22</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>22</v>
+      </c>
+      <c r="S22" s="4">
+        <v>9845482075</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="3">
+        <v>49</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="3">
+        <v>25</v>
+      </c>
+      <c r="E23" s="3">
+        <v>25</v>
+      </c>
+      <c r="F23" s="3">
+        <v>29</v>
+      </c>
+      <c r="G23" s="3">
+        <v>29</v>
+      </c>
+      <c r="H23" s="3">
+        <v>34</v>
+      </c>
+      <c r="I23" s="3">
+        <v>34</v>
+      </c>
+      <c r="J23" s="3">
+        <v>34</v>
+      </c>
+      <c r="K23" s="3">
+        <v>34</v>
+      </c>
+      <c r="L23" s="3">
+        <v>28</v>
+      </c>
+      <c r="M23" s="3">
+        <v>28</v>
+      </c>
+      <c r="N23" s="3">
+        <v>35</v>
+      </c>
+      <c r="O23" s="3">
+        <v>35</v>
+      </c>
+      <c r="P23" s="3">
+        <v>40</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>40</v>
+      </c>
+      <c r="S23" s="5">
+        <v>7899913788</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="3">
+        <v>50</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="3">
+        <v>25</v>
+      </c>
+      <c r="E24" s="3">
+        <v>25</v>
+      </c>
+      <c r="F24" s="3">
+        <v>30</v>
+      </c>
+      <c r="G24" s="3">
+        <v>30</v>
+      </c>
+      <c r="H24" s="3">
+        <v>35</v>
+      </c>
+      <c r="I24" s="3">
+        <v>35</v>
+      </c>
+      <c r="J24" s="3">
+        <v>40</v>
+      </c>
+      <c r="K24" s="3">
+        <v>40</v>
+      </c>
+      <c r="L24" s="3">
+        <v>36</v>
+      </c>
+      <c r="M24" s="3">
+        <v>36</v>
+      </c>
+      <c r="N24" s="3">
+        <v>39</v>
+      </c>
+      <c r="O24" s="3">
+        <v>39</v>
+      </c>
+      <c r="P24" s="3">
+        <v>37</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>37</v>
+      </c>
+      <c r="S24" s="5">
+        <v>9900102562</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="3">
+        <v>51</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="3">
+        <v>22</v>
+      </c>
+      <c r="E25" s="3">
+        <v>22</v>
+      </c>
+      <c r="F25" s="3">
+        <v>30</v>
+      </c>
+      <c r="G25" s="3">
+        <v>30</v>
+      </c>
+      <c r="H25" s="3">
+        <v>24</v>
+      </c>
+      <c r="I25" s="3">
+        <v>24</v>
+      </c>
+      <c r="J25" s="3">
+        <v>37</v>
+      </c>
+      <c r="K25" s="3">
+        <v>37</v>
+      </c>
+      <c r="L25" s="3">
+        <v>29</v>
+      </c>
+      <c r="M25" s="3">
+        <v>29</v>
+      </c>
+      <c r="N25" s="3">
+        <v>40</v>
+      </c>
+      <c r="O25" s="3">
+        <v>40</v>
+      </c>
+      <c r="P25" s="3">
+        <v>40</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>40</v>
+      </c>
+      <c r="S25" s="4">
+        <v>9606781119</v>
+      </c>
+      <c r="T25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="3">
+        <v>52</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="3">
+        <v>27</v>
+      </c>
+      <c r="E26" s="3">
+        <v>27</v>
+      </c>
+      <c r="F26" s="3">
+        <v>29</v>
+      </c>
+      <c r="G26" s="3">
+        <v>29</v>
+      </c>
+      <c r="H26" s="3">
+        <v>31</v>
+      </c>
+      <c r="I26" s="3">
+        <v>31</v>
+      </c>
+      <c r="J26" s="3">
+        <v>40</v>
+      </c>
+      <c r="K26" s="3">
+        <v>40</v>
+      </c>
+      <c r="L26" s="3">
+        <v>29</v>
+      </c>
+      <c r="M26" s="3">
+        <v>29</v>
+      </c>
+      <c r="N26" s="3">
+        <v>40</v>
+      </c>
+      <c r="O26" s="3">
+        <v>40</v>
+      </c>
+      <c r="P26" s="3">
+        <v>39</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>39</v>
+      </c>
+      <c r="S26" s="4">
+        <v>8150847625</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="3">
+        <v>53</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="3">
+        <v>18</v>
+      </c>
+      <c r="E27" s="3">
+        <v>18</v>
+      </c>
+      <c r="F27" s="3">
+        <v>27</v>
+      </c>
+      <c r="G27" s="3">
+        <v>27</v>
+      </c>
+      <c r="H27" s="3">
+        <v>26</v>
+      </c>
+      <c r="I27" s="3">
+        <v>26</v>
+      </c>
+      <c r="J27" s="3">
+        <v>34</v>
+      </c>
+      <c r="K27" s="3">
+        <v>34</v>
+      </c>
+      <c r="L27" s="3">
+        <v>24</v>
+      </c>
+      <c r="M27" s="3">
+        <v>24</v>
+      </c>
+      <c r="N27" s="3">
+        <v>34</v>
+      </c>
+      <c r="O27" s="3">
+        <v>34</v>
+      </c>
+      <c r="P27" s="3">
+        <v>20</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>20</v>
+      </c>
+      <c r="S27" s="4">
+        <v>9866690427</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="3">
+        <v>54</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="3">
+        <v>18</v>
+      </c>
+      <c r="E28" s="3">
+        <v>18</v>
+      </c>
+      <c r="F28" s="3">
+        <v>29</v>
+      </c>
+      <c r="G28" s="3">
+        <v>29</v>
+      </c>
+      <c r="H28" s="3">
+        <v>31</v>
+      </c>
+      <c r="I28" s="3">
+        <v>31</v>
+      </c>
+      <c r="J28" s="3">
+        <v>27</v>
+      </c>
+      <c r="K28" s="3">
+        <v>27</v>
+      </c>
+      <c r="L28" s="3">
+        <v>24</v>
+      </c>
+      <c r="M28" s="3">
+        <v>24</v>
+      </c>
+      <c r="N28" s="3">
+        <v>26</v>
+      </c>
+      <c r="O28" s="3">
+        <v>26</v>
+      </c>
+      <c r="P28" s="3">
+        <v>31</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>31</v>
+      </c>
+      <c r="S28" s="4">
+        <v>8050077909</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="3">
+        <v>55</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="3">
+        <v>13</v>
+      </c>
+      <c r="E29" s="3">
+        <v>13</v>
+      </c>
+      <c r="F29" s="3">
+        <v>20</v>
+      </c>
+      <c r="G29" s="3">
+        <v>20</v>
+      </c>
+      <c r="H29" s="3">
+        <v>18</v>
+      </c>
+      <c r="I29" s="3">
+        <v>18</v>
+      </c>
+      <c r="J29" s="3">
+        <v>13</v>
+      </c>
+      <c r="K29" s="3">
+        <v>13</v>
+      </c>
+      <c r="L29" s="3">
+        <v>32</v>
+      </c>
+      <c r="M29" s="3">
+        <v>32</v>
+      </c>
+      <c r="N29" s="3">
+        <v>39</v>
+      </c>
+      <c r="O29" s="3">
+        <v>39</v>
+      </c>
+      <c r="P29" s="3">
         <v>2</v>
       </c>
-      <c r="L1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2">
-        <v>92</v>
-      </c>
-      <c r="D2">
-        <v>93</v>
-      </c>
-      <c r="E2">
-        <v>31</v>
-      </c>
-      <c r="F2">
-        <v>98</v>
-      </c>
-      <c r="G2">
-        <v>54</v>
-      </c>
-      <c r="H2">
+      <c r="Q29" s="3">
+        <v>2</v>
+      </c>
+      <c r="S29" s="4">
+        <v>9980102542</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="3">
+        <v>56</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="3">
+        <v>24</v>
+      </c>
+      <c r="E30" s="3">
+        <v>24</v>
+      </c>
+      <c r="F30" s="3">
+        <v>28</v>
+      </c>
+      <c r="G30" s="3">
+        <v>28</v>
+      </c>
+      <c r="H30" s="3">
+        <v>36</v>
+      </c>
+      <c r="I30" s="3">
+        <v>36</v>
+      </c>
+      <c r="J30" s="3">
+        <v>40</v>
+      </c>
+      <c r="K30" s="3">
+        <v>40</v>
+      </c>
+      <c r="L30" s="3">
+        <v>33</v>
+      </c>
+      <c r="M30" s="3">
+        <v>33</v>
+      </c>
+      <c r="N30" s="3">
+        <v>40</v>
+      </c>
+      <c r="O30" s="3">
+        <v>40</v>
+      </c>
+      <c r="P30" s="3">
+        <v>30</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>30</v>
+      </c>
+      <c r="S30" s="5">
+        <v>9611897983</v>
+      </c>
+      <c r="T30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="3">
+        <v>57</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" s="3">
+        <v>25</v>
+      </c>
+      <c r="E31" s="3">
+        <v>25</v>
+      </c>
+      <c r="F31" s="3">
+        <v>30</v>
+      </c>
+      <c r="G31" s="3">
+        <v>30</v>
+      </c>
+      <c r="H31" s="3">
+        <v>38</v>
+      </c>
+      <c r="I31" s="3">
+        <v>38</v>
+      </c>
+      <c r="J31" s="3">
+        <v>33</v>
+      </c>
+      <c r="K31" s="3">
+        <v>33</v>
+      </c>
+      <c r="L31" s="3">
+        <v>29</v>
+      </c>
+      <c r="M31" s="3">
+        <v>29</v>
+      </c>
+      <c r="N31" s="3">
+        <v>38</v>
+      </c>
+      <c r="O31" s="3">
+        <v>38</v>
+      </c>
+      <c r="P31" s="3">
+        <v>33</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>33</v>
+      </c>
+      <c r="S31" s="4">
+        <v>9242469959</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="3">
+        <v>58</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" s="3">
+        <v>30</v>
+      </c>
+      <c r="E32" s="3">
+        <v>30</v>
+      </c>
+      <c r="F32" s="3">
+        <v>30</v>
+      </c>
+      <c r="G32" s="3">
+        <v>30</v>
+      </c>
+      <c r="H32" s="3">
+        <v>35</v>
+      </c>
+      <c r="I32" s="3">
+        <v>35</v>
+      </c>
+      <c r="J32" s="3">
+        <v>36</v>
+      </c>
+      <c r="K32" s="3">
+        <v>36</v>
+      </c>
+      <c r="L32" s="3">
+        <v>32</v>
+      </c>
+      <c r="M32" s="3">
+        <v>32</v>
+      </c>
+      <c r="N32" s="3">
+        <v>39</v>
+      </c>
+      <c r="O32" s="3">
+        <v>39</v>
+      </c>
+      <c r="P32" s="3">
+        <v>35</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>35</v>
+      </c>
+      <c r="S32" s="4">
+        <v>8618805015</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="3">
+        <v>59</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" s="3">
+        <v>12</v>
+      </c>
+      <c r="E33" s="3">
+        <v>12</v>
+      </c>
+      <c r="F33" s="3">
+        <v>23</v>
+      </c>
+      <c r="G33" s="3">
+        <v>23</v>
+      </c>
+      <c r="H33" s="3">
+        <v>25</v>
+      </c>
+      <c r="I33" s="3">
+        <v>25</v>
+      </c>
+      <c r="J33" s="3">
+        <v>28</v>
+      </c>
+      <c r="K33" s="3">
+        <v>28</v>
+      </c>
+      <c r="L33" s="3">
+        <v>23</v>
+      </c>
+      <c r="M33" s="3">
+        <v>23</v>
+      </c>
+      <c r="N33" s="3">
+        <v>35</v>
+      </c>
+      <c r="O33" s="3">
+        <v>35</v>
+      </c>
+      <c r="P33" s="3">
+        <v>24</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>24</v>
+      </c>
+      <c r="S33" s="4">
+        <v>8971333574</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="3">
+        <v>60</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" s="3">
+        <v>17</v>
+      </c>
+      <c r="E34" s="3">
+        <v>17</v>
+      </c>
+      <c r="F34" s="3">
+        <v>30</v>
+      </c>
+      <c r="G34" s="3">
+        <v>30</v>
+      </c>
+      <c r="H34" s="3">
+        <v>19</v>
+      </c>
+      <c r="I34" s="3">
+        <v>19</v>
+      </c>
+      <c r="J34" s="3">
+        <v>30</v>
+      </c>
+      <c r="K34" s="3">
+        <v>30</v>
+      </c>
+      <c r="L34" s="3">
+        <v>28</v>
+      </c>
+      <c r="M34" s="3">
+        <v>28</v>
+      </c>
+      <c r="N34" s="3">
+        <v>40</v>
+      </c>
+      <c r="O34" s="3">
+        <v>40</v>
+      </c>
+      <c r="P34" s="3">
+        <v>26</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>26</v>
+      </c>
+      <c r="S34" s="4">
+        <v>9966585253</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="3">
+        <v>61</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" s="3">
+        <v>10</v>
+      </c>
+      <c r="E35" s="3">
+        <v>10</v>
+      </c>
+      <c r="F35" s="3">
+        <v>20</v>
+      </c>
+      <c r="G35" s="3">
+        <v>20</v>
+      </c>
+      <c r="H35" s="3">
+        <v>17</v>
+      </c>
+      <c r="I35" s="3">
+        <v>17</v>
+      </c>
+      <c r="J35" s="3">
+        <v>16</v>
+      </c>
+      <c r="K35" s="3">
+        <v>16</v>
+      </c>
+      <c r="L35" s="3">
+        <v>24</v>
+      </c>
+      <c r="M35" s="3">
+        <v>24</v>
+      </c>
+      <c r="N35" s="3">
+        <v>24</v>
+      </c>
+      <c r="O35" s="3">
+        <v>24</v>
+      </c>
+      <c r="P35" s="3">
+        <v>16</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>16</v>
+      </c>
+      <c r="S35" s="5">
+        <v>9353398121</v>
+      </c>
+      <c r="T35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="3">
+        <v>62</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36" s="3">
+        <v>12</v>
+      </c>
+      <c r="E36" s="3">
+        <v>12</v>
+      </c>
+      <c r="F36" s="3">
+        <v>18</v>
+      </c>
+      <c r="G36" s="3">
+        <v>18</v>
+      </c>
+      <c r="H36" s="3">
+        <v>28</v>
+      </c>
+      <c r="I36" s="3">
+        <v>28</v>
+      </c>
+      <c r="J36" s="3">
+        <v>10</v>
+      </c>
+      <c r="K36" s="3">
+        <v>10</v>
+      </c>
+      <c r="L36" s="3">
+        <v>30</v>
+      </c>
+      <c r="M36" s="3">
+        <v>30</v>
+      </c>
+      <c r="N36" s="3">
+        <v>36</v>
+      </c>
+      <c r="O36" s="3">
+        <v>36</v>
+      </c>
+      <c r="P36" s="3">
         <v>34</v>
       </c>
-      <c r="I2">
-        <v>65</v>
-      </c>
-      <c r="J2">
-        <v>65</v>
-      </c>
-      <c r="K2">
+      <c r="Q36" s="3">
+        <v>34</v>
+      </c>
+      <c r="S36" s="4">
+        <v>9113870017</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="3">
+        <v>63</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="L2">
-        <v>9876543210</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>92</v>
-      </c>
-      <c r="D3">
-        <v>93</v>
-      </c>
-      <c r="E3">
-        <v>31</v>
-      </c>
-      <c r="F3">
-        <v>98</v>
-      </c>
-      <c r="G3">
-        <v>54</v>
-      </c>
-      <c r="H3">
-        <v>34</v>
-      </c>
-      <c r="I3">
-        <v>65</v>
-      </c>
-      <c r="J3">
-        <v>65</v>
-      </c>
-      <c r="K3">
-        <v>74</v>
-      </c>
-      <c r="L3">
-        <v>9876543210</v>
+      <c r="C37" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37" s="3">
+        <v>15</v>
+      </c>
+      <c r="E37" s="3">
+        <v>15</v>
+      </c>
+      <c r="F37" s="3">
+        <v>22</v>
+      </c>
+      <c r="G37" s="3">
+        <v>22</v>
+      </c>
+      <c r="H37" s="3">
+        <v>24</v>
+      </c>
+      <c r="I37" s="3">
+        <v>24</v>
+      </c>
+      <c r="J37" s="3">
+        <v>25</v>
+      </c>
+      <c r="K37" s="3">
+        <v>25</v>
+      </c>
+      <c r="L37" s="3">
+        <v>24</v>
+      </c>
+      <c r="M37" s="3">
+        <v>24</v>
+      </c>
+      <c r="N37" s="3">
+        <v>33</v>
+      </c>
+      <c r="O37" s="3">
+        <v>33</v>
+      </c>
+      <c r="P37" s="3">
+        <v>30</v>
+      </c>
+      <c r="Q37" s="3">
+        <v>30</v>
+      </c>
+      <c r="S37" s="4">
+        <v>7022352395</v>
+      </c>
+      <c r="T37" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <mergeCells count="13">
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A3:M3"/>
+    <mergeCell ref="A4:M4"/>
+    <mergeCell ref="A5:M5"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P9:R9"/>
+    <mergeCell ref="A6:M6"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/studentData.xlsx
+++ b/studentData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bhuvansa/Desktop/Projects/Whatsappbot/WhatsappMarksBot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C7E951F-A4A9-E243-90CD-AD153543A5BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7326E4F-053A-FB45-9CEB-FDEA5EEF83DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="75">
   <si>
     <t>Global Academy of Technology,</t>
   </si>
@@ -104,9 +104,6 @@
     <t>AMOGH B ACHAR</t>
   </si>
   <si>
-    <t>error</t>
-  </si>
-  <si>
     <t>1GA21AI009</t>
   </si>
   <si>
@@ -255,12 +252,6 @@
   </si>
   <si>
     <t>KARTHIK D G</t>
-  </si>
-  <si>
-    <t>"Outcome Based Education" software by contineo.in</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Generated On 27-01-2023 10:57:48 By Contineo </t>
   </si>
 </sst>
 </file>
@@ -374,10 +365,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -385,6 +372,10 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -701,10 +692,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T40"/>
+  <dimension ref="A1:S40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W29" sqref="W29"/>
+      <selection activeCell="T37" sqref="T37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -716,109 +707,109 @@
     <col min="19" max="19" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-    </row>
-    <row r="2" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+    </row>
+    <row r="2" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-    </row>
-    <row r="3" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+    </row>
+    <row r="3" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-    </row>
-    <row r="4" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="8" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+    </row>
+    <row r="4" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-    </row>
-    <row r="5" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="8" t="s">
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+    </row>
+    <row r="5" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-    </row>
-    <row r="6" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="8" t="s">
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+    </row>
+    <row r="6" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-    </row>
-    <row r="9" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+    </row>
+    <row r="9" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -828,40 +819,40 @@
       <c r="C9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7" t="s">
+      <c r="E9" s="11"/>
+      <c r="F9" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7" t="s">
+      <c r="G9" s="11"/>
+      <c r="H9" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7" t="s">
+      <c r="I9" s="11"/>
+      <c r="J9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7" t="s">
+      <c r="K9" s="11"/>
+      <c r="L9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7" t="s">
+      <c r="M9" s="11"/>
+      <c r="N9" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7" t="s">
+      <c r="O9" s="11"/>
+      <c r="P9" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
       <c r="S9" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -909,7 +900,7 @@
       </c>
       <c r="R10" s="1"/>
     </row>
-    <row r="11" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>1</v>
       </c>
@@ -965,7 +956,7 @@
         <v>9344585275</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>8</v>
       </c>
@@ -1020,19 +1011,16 @@
       <c r="S12" s="4">
         <v>8310659391</v>
       </c>
-      <c r="T12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>9</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="D13" s="3">
         <v>12</v>
@@ -1080,15 +1068,15 @@
         <v>7892806399</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>27</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="D14" s="3">
         <v>9</v>
@@ -1136,15 +1124,15 @@
         <v>7019154743</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>28</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D15" s="3">
         <v>18</v>
@@ -1192,15 +1180,15 @@
         <v>8792529679</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>29</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="D16" s="3">
         <v>24</v>
@@ -1247,19 +1235,16 @@
       <c r="S16" s="5">
         <v>7975441021</v>
       </c>
-      <c r="T16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>43</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="D17" s="3">
         <v>0</v>
@@ -1307,15 +1292,15 @@
         <v>9032218845</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>44</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="D18" s="3">
         <v>27</v>
@@ -1363,15 +1348,15 @@
         <v>9741342449</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>45</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="D19" s="3">
         <v>17</v>
@@ -1419,15 +1404,15 @@
         <v>8892469322</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>46</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D20" s="3">
         <v>13</v>
@@ -1475,15 +1460,15 @@
         <v>9886027132</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>47</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>42</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>43</v>
       </c>
       <c r="D21" s="3">
         <v>19</v>
@@ -1530,19 +1515,16 @@
       <c r="S21" s="5">
         <v>8453790708</v>
       </c>
-      <c r="T21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>48</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="D22" s="3">
         <v>21</v>
@@ -1590,15 +1572,15 @@
         <v>9845482075</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>49</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="D23" s="3">
         <v>25</v>
@@ -1646,15 +1628,15 @@
         <v>7899913788</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>50</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="D24" s="3">
         <v>25</v>
@@ -1702,15 +1684,15 @@
         <v>9900102562</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>51</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="D25" s="3">
         <v>22</v>
@@ -1757,19 +1739,16 @@
       <c r="S25" s="4">
         <v>9606781119</v>
       </c>
-      <c r="T25" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="26" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>52</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="D26" s="3">
         <v>27</v>
@@ -1817,15 +1796,15 @@
         <v>8150847625</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>53</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="D27" s="3">
         <v>18</v>
@@ -1873,15 +1852,15 @@
         <v>9866690427</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>54</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="D28" s="3">
         <v>18</v>
@@ -1929,15 +1908,15 @@
         <v>8050077909</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>55</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="D29" s="3">
         <v>13</v>
@@ -1985,15 +1964,15 @@
         <v>9980102542</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3">
         <v>56</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="D30" s="3">
         <v>24</v>
@@ -2040,19 +2019,16 @@
       <c r="S30" s="5">
         <v>9611897983</v>
       </c>
-      <c r="T30" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="31" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3">
         <v>57</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="D31" s="3">
         <v>25</v>
@@ -2100,15 +2076,15 @@
         <v>9242469959</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3">
         <v>58</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="D32" s="3">
         <v>30</v>
@@ -2156,15 +2132,15 @@
         <v>8618805015</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="3">
         <v>59</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="D33" s="3">
         <v>12</v>
@@ -2212,15 +2188,15 @@
         <v>8971333574</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="3">
         <v>60</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="D34" s="3">
         <v>17</v>
@@ -2268,15 +2244,15 @@
         <v>9966585253</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="3">
         <v>61</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>71</v>
       </c>
       <c r="D35" s="3">
         <v>10</v>
@@ -2323,19 +2299,16 @@
       <c r="S35" s="5">
         <v>9353398121</v>
       </c>
-      <c r="T35" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="36" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="3">
         <v>62</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="D36" s="3">
         <v>12</v>
@@ -2383,15 +2356,15 @@
         <v>9113870017</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="3">
         <v>63</v>
       </c>
       <c r="B37" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="D37" s="3">
         <v>15</v>
@@ -2438,27 +2411,11 @@
       <c r="S37" s="4">
         <v>7022352395</v>
       </c>
-      <c r="T37" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" t="s">
-        <v>77</v>
-      </c>
-    </row>
+    </row>
+    <row r="39" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="A3:M3"/>
-    <mergeCell ref="A4:M4"/>
-    <mergeCell ref="A5:M5"/>
     <mergeCell ref="N9:O9"/>
     <mergeCell ref="P9:R9"/>
     <mergeCell ref="A6:M6"/>
@@ -2467,6 +2424,11 @@
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="L9:M9"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A3:M3"/>
+    <mergeCell ref="A4:M4"/>
+    <mergeCell ref="A5:M5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/studentData.xlsx
+++ b/studentData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28520" yWindow="1400" windowWidth="28200" windowHeight="16900" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <name val="Arial"/>
       <charset val="1"/>
@@ -65,6 +65,12 @@
       <sz val="11"/>
     </font>
     <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+    </font>
+    <font>
       <color rgb="00ff0000"/>
     </font>
   </fonts>
@@ -110,26 +116,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -152,11 +138,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -176,25 +182,29 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -574,28 +584,28 @@
   </sheetPr>
   <dimension ref="A1:T37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col width="12" customWidth="1" style="10" min="1" max="1"/>
-    <col width="15" customWidth="1" style="10" min="2" max="2"/>
-    <col width="30" customWidth="1" style="10" min="3" max="3"/>
-    <col width="12" customWidth="1" style="10" min="4" max="18"/>
-    <col width="14" customWidth="1" style="10" min="19" max="19"/>
+    <col width="12" customWidth="1" style="11" min="1" max="1"/>
+    <col width="15" customWidth="1" style="11" min="2" max="2"/>
+    <col width="30" customWidth="1" style="11" min="3" max="3"/>
+    <col width="12" customWidth="1" style="11" min="4" max="17"/>
+    <col width="14" customWidth="1" style="11" min="18" max="18"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20" customHeight="1" s="10">
-      <c r="A1" s="7" t="inlineStr">
+    <row r="1" ht="20" customHeight="1" s="11">
+      <c r="A1" s="10" t="inlineStr">
         <is>
           <t>Global Academy of Technology,</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="20" customHeight="1" s="10">
-      <c r="A2" s="8" t="inlineStr">
+    <row r="2" ht="20" customHeight="1" s="11">
+      <c r="A2" s="12" t="inlineStr">
         <is>
           <t>Rajarajeshwarinagar,
 Ideal Homes Township,
@@ -603,28 +613,28 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="20" customHeight="1" s="10">
-      <c r="A3" s="9" t="inlineStr">
+    <row r="3" ht="20" customHeight="1" s="11">
+      <c r="A3" s="13" t="inlineStr">
         <is>
           <t>IA MarksList of Students</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="20" customHeight="1" s="10">
+    <row r="4" ht="20" customHeight="1" s="11">
       <c r="A4" t="inlineStr">
         <is>
           <t>Degree: B.E</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="20" customHeight="1" s="10">
+    <row r="5" ht="20" customHeight="1" s="11">
       <c r="A5" t="inlineStr">
         <is>
           <t>Class/Course: Semester 3 / Artificial Intelligence and Machine learning</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="20" customHeight="1" s="10">
+    <row r="6" ht="20" customHeight="1" s="11">
       <c r="A6" t="inlineStr">
         <is>
           <t>Section:  A</t>
@@ -686,152 +696,147 @@
       <c r="R8" t="n">
         <v>18</v>
       </c>
-      <c r="S8" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" ht="20" customHeight="1" s="10">
-      <c r="A9" s="11" t="inlineStr">
+    </row>
+    <row r="9" ht="20" customHeight="1" s="11">
+      <c r="A9" s="14" t="inlineStr">
         <is>
           <t>Sl No</t>
         </is>
       </c>
-      <c r="B9" s="11" t="inlineStr">
+      <c r="B9" s="14" t="inlineStr">
         <is>
           <t>USN No.</t>
         </is>
       </c>
-      <c r="C9" s="11" t="inlineStr">
+      <c r="C9" s="14" t="inlineStr">
         <is>
           <t>Student Name</t>
         </is>
       </c>
-      <c r="D9" s="11" t="inlineStr">
+      <c r="D9" s="14" t="inlineStr">
         <is>
           <t>21AML32</t>
         </is>
       </c>
-      <c r="E9" s="13" t="n"/>
-      <c r="F9" s="11" t="inlineStr">
+      <c r="E9" s="15" t="n"/>
+      <c r="F9" s="14" t="inlineStr">
         <is>
           <t>21AML33</t>
         </is>
       </c>
-      <c r="G9" s="13" t="n"/>
-      <c r="H9" s="11" t="inlineStr">
+      <c r="G9" s="15" t="n"/>
+      <c r="H9" s="14" t="inlineStr">
         <is>
           <t>21AML34</t>
         </is>
       </c>
-      <c r="I9" s="13" t="n"/>
-      <c r="J9" s="11" t="inlineStr">
+      <c r="I9" s="15" t="n"/>
+      <c r="J9" s="14" t="inlineStr">
         <is>
           <t>21AML35</t>
         </is>
       </c>
-      <c r="K9" s="13" t="n"/>
-      <c r="L9" s="11" t="inlineStr">
+      <c r="K9" s="15" t="n"/>
+      <c r="L9" s="14" t="inlineStr">
         <is>
           <t>21AML371</t>
         </is>
       </c>
-      <c r="M9" s="13" t="n"/>
-      <c r="N9" s="11" t="inlineStr">
+      <c r="M9" s="15" t="n"/>
+      <c r="N9" s="14" t="inlineStr">
         <is>
           <t>21CIP36</t>
         </is>
       </c>
-      <c r="O9" s="13" t="n"/>
-      <c r="P9" s="11" t="inlineStr">
+      <c r="O9" s="15" t="n"/>
+      <c r="P9" s="14" t="inlineStr">
         <is>
           <t>21MAT31A</t>
         </is>
       </c>
-      <c r="Q9" s="14" t="n"/>
-      <c r="R9" s="13" t="n"/>
-      <c r="S9" s="2" t="inlineStr">
+      <c r="Q9" s="15" t="n"/>
+      <c r="R9" s="2" t="inlineStr">
         <is>
           <t>Whattsapp No</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="20" customHeight="1" s="10">
-      <c r="A10" s="11" t="n"/>
-      <c r="B10" s="11" t="n"/>
-      <c r="C10" s="11" t="n"/>
-      <c r="D10" s="11" t="inlineStr">
+    <row r="10" ht="20" customHeight="1" s="11">
+      <c r="A10" s="14" t="n"/>
+      <c r="B10" s="14" t="n"/>
+      <c r="C10" s="14" t="n"/>
+      <c r="D10" s="14" t="inlineStr">
         <is>
           <t>CIE1 (30)</t>
         </is>
       </c>
-      <c r="E10" s="11" t="inlineStr">
+      <c r="E10" s="14" t="inlineStr">
         <is>
           <t>Total (CIE)</t>
         </is>
       </c>
-      <c r="F10" s="11" t="inlineStr">
+      <c r="F10" s="14" t="inlineStr">
         <is>
           <t>CIE1 (30)</t>
         </is>
       </c>
-      <c r="G10" s="11" t="inlineStr">
+      <c r="G10" s="14" t="inlineStr">
         <is>
           <t>Total (CIE)</t>
         </is>
       </c>
-      <c r="H10" s="11" t="inlineStr">
+      <c r="H10" s="14" t="inlineStr">
         <is>
           <t>CIE1 (40)</t>
         </is>
       </c>
-      <c r="I10" s="11" t="inlineStr">
+      <c r="I10" s="14" t="inlineStr">
         <is>
           <t>Total (CIE)</t>
         </is>
       </c>
-      <c r="J10" s="11" t="inlineStr">
+      <c r="J10" s="14" t="inlineStr">
         <is>
           <t>CIE1 (40)</t>
         </is>
       </c>
-      <c r="K10" s="11" t="inlineStr">
+      <c r="K10" s="14" t="inlineStr">
         <is>
           <t>Total (CIE)</t>
         </is>
       </c>
-      <c r="L10" s="11" t="inlineStr">
+      <c r="L10" s="14" t="inlineStr">
         <is>
           <t>CIE1 (40)</t>
         </is>
       </c>
-      <c r="M10" s="11" t="inlineStr">
+      <c r="M10" s="14" t="inlineStr">
         <is>
           <t>Total (CIE)</t>
         </is>
       </c>
-      <c r="N10" s="11" t="inlineStr">
+      <c r="N10" s="14" t="inlineStr">
         <is>
           <t>CIE1 (40)</t>
         </is>
       </c>
-      <c r="O10" s="11" t="inlineStr">
+      <c r="O10" s="14" t="inlineStr">
         <is>
           <t>Total (CIE)</t>
         </is>
       </c>
-      <c r="P10" s="11" t="inlineStr">
+      <c r="P10" s="14" t="inlineStr">
         <is>
           <t>CIE1 (40)</t>
         </is>
       </c>
-      <c r="Q10" s="11" t="inlineStr">
+      <c r="Q10" s="14" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="R10" s="11" t="n"/>
-    </row>
-    <row r="11" ht="20" customHeight="1" s="10">
+    </row>
+    <row r="11" ht="20" customHeight="1" s="11">
       <c r="A11" s="3" t="n">
         <v>1</v>
       </c>
@@ -845,11 +850,15 @@
           <t>ABHI KRISHNAN</t>
         </is>
       </c>
-      <c r="D11" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="3" t="n">
-        <v>0</v>
+      <c r="D11" s="9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E11" s="9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
       </c>
       <c r="F11" s="3" t="n">
         <v>0</v>
@@ -887,11 +896,11 @@
       <c r="Q11" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="S11" s="4" t="n">
+      <c r="R11" s="4" t="n">
         <v>8050158461</v>
       </c>
     </row>
-    <row r="12" ht="20" customHeight="1" s="10">
+    <row r="12" ht="20" customHeight="1" s="11">
       <c r="A12" s="3" t="n">
         <v>8</v>
       </c>
@@ -909,13 +918,13 @@
         <v>30</v>
       </c>
       <c r="E12" s="3" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F12" s="3" t="n">
         <v>30</v>
       </c>
       <c r="G12" s="3" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H12" s="3" t="n">
         <v>36</v>
@@ -947,11 +956,11 @@
       <c r="Q12" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="S12" s="4" t="n">
+      <c r="R12" s="4" t="n">
         <v>8050158461</v>
       </c>
     </row>
-    <row r="13" ht="20" customHeight="1" s="10">
+    <row r="13" ht="20" customHeight="1" s="11">
       <c r="A13" s="3" t="n">
         <v>9</v>
       </c>
@@ -1007,18 +1016,23 @@
       <c r="Q13" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="S13" s="12" t="inlineStr">
+      <c r="R13" s="7" t="inlineStr">
         <is>
           <t>phoneNo</t>
         </is>
       </c>
-      <c r="T13" s="15" t="inlineStr">
+      <c r="S13" s="8" t="inlineStr">
         <is>
           <t>Error</t>
         </is>
       </c>
-    </row>
-    <row r="14" ht="20" customHeight="1" s="10">
+      <c r="T13" s="17" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="20" customHeight="1" s="11">
       <c r="A14" s="3" t="n">
         <v>27</v>
       </c>
@@ -1074,11 +1088,11 @@
       <c r="Q14" s="3" t="n">
         <v>27</v>
       </c>
-      <c r="S14" s="4" t="n">
+      <c r="R14" s="4" t="n">
         <v>7019154743</v>
       </c>
     </row>
-    <row r="15" ht="20" customHeight="1" s="10">
+    <row r="15" ht="20" customHeight="1" s="11">
       <c r="A15" s="3" t="n">
         <v>28</v>
       </c>
@@ -1134,11 +1148,11 @@
       <c r="Q15" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="S15" s="5" t="n">
+      <c r="R15" s="5" t="n">
         <v>8792529679</v>
       </c>
     </row>
-    <row r="16" ht="20" customHeight="1" s="10">
+    <row r="16" ht="20" customHeight="1" s="11">
       <c r="A16" s="3" t="n">
         <v>29</v>
       </c>
@@ -1194,11 +1208,11 @@
       <c r="Q16" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="S16" s="5" t="n">
+      <c r="R16" s="5" t="n">
         <v>7975441021</v>
       </c>
     </row>
-    <row r="17" ht="20" customHeight="1" s="10">
+    <row r="17" ht="20" customHeight="1" s="11">
       <c r="A17" s="3" t="n">
         <v>43</v>
       </c>
@@ -1254,11 +1268,11 @@
       <c r="Q17" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="S17" s="5" t="n">
+      <c r="R17" s="5" t="n">
         <v>9032218845</v>
       </c>
     </row>
-    <row r="18" ht="20" customHeight="1" s="10">
+    <row r="18" ht="20" customHeight="1" s="11">
       <c r="A18" s="3" t="n">
         <v>44</v>
       </c>
@@ -1314,11 +1328,11 @@
       <c r="Q18" s="3" t="n">
         <v>40</v>
       </c>
-      <c r="S18" s="5" t="n">
+      <c r="R18" s="5" t="n">
         <v>9741342449</v>
       </c>
     </row>
-    <row r="19" ht="20" customHeight="1" s="10">
+    <row r="19" ht="20" customHeight="1" s="11">
       <c r="A19" s="3" t="n">
         <v>45</v>
       </c>
@@ -1374,11 +1388,11 @@
       <c r="Q19" s="3" t="n">
         <v>32</v>
       </c>
-      <c r="S19" s="4" t="n">
+      <c r="R19" s="4" t="n">
         <v>8892469322</v>
       </c>
     </row>
-    <row r="20" ht="20" customHeight="1" s="10">
+    <row r="20" ht="20" customHeight="1" s="11">
       <c r="A20" s="3" t="n">
         <v>46</v>
       </c>
@@ -1434,11 +1448,11 @@
       <c r="Q20" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="S20" s="4" t="n">
+      <c r="R20" s="4" t="n">
         <v>9886027132</v>
       </c>
     </row>
-    <row r="21" ht="20" customHeight="1" s="10">
+    <row r="21" ht="20" customHeight="1" s="11">
       <c r="A21" s="3" t="n">
         <v>47</v>
       </c>
@@ -1494,11 +1508,16 @@
       <c r="Q21" s="3" t="n">
         <v>29</v>
       </c>
-      <c r="S21" s="5" t="n">
+      <c r="R21" s="5" t="n">
         <v>8453790708</v>
       </c>
-    </row>
-    <row r="22" ht="20" customHeight="1" s="10">
+      <c r="T21" s="17" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="20" customHeight="1" s="11">
       <c r="A22" s="3" t="n">
         <v>48</v>
       </c>
@@ -1554,11 +1573,11 @@
       <c r="Q22" s="3" t="n">
         <v>22</v>
       </c>
-      <c r="S22" s="4" t="n">
+      <c r="R22" s="4" t="n">
         <v>9845482075</v>
       </c>
     </row>
-    <row r="23" ht="20" customHeight="1" s="10">
+    <row r="23" ht="20" customHeight="1" s="11">
       <c r="A23" s="3" t="n">
         <v>49</v>
       </c>
@@ -1614,11 +1633,11 @@
       <c r="Q23" s="3" t="n">
         <v>40</v>
       </c>
-      <c r="S23" s="5" t="n">
+      <c r="R23" s="5" t="n">
         <v>7899913788</v>
       </c>
     </row>
-    <row r="24" ht="20" customHeight="1" s="10">
+    <row r="24" ht="20" customHeight="1" s="11">
       <c r="A24" s="3" t="n">
         <v>50</v>
       </c>
@@ -1674,11 +1693,11 @@
       <c r="Q24" s="3" t="n">
         <v>37</v>
       </c>
-      <c r="S24" s="5" t="n">
+      <c r="R24" s="5" t="n">
         <v>9900102562</v>
       </c>
     </row>
-    <row r="25" ht="20" customHeight="1" s="10">
+    <row r="25" ht="20" customHeight="1" s="11">
       <c r="A25" s="3" t="n">
         <v>51</v>
       </c>
@@ -1734,11 +1753,11 @@
       <c r="Q25" s="3" t="n">
         <v>40</v>
       </c>
-      <c r="S25" s="4" t="n">
+      <c r="R25" s="4" t="n">
         <v>9606781119</v>
       </c>
     </row>
-    <row r="26" ht="20" customHeight="1" s="10">
+    <row r="26" ht="20" customHeight="1" s="11">
       <c r="A26" s="3" t="n">
         <v>52</v>
       </c>
@@ -1794,11 +1813,11 @@
       <c r="Q26" s="3" t="n">
         <v>39</v>
       </c>
-      <c r="S26" s="4" t="n">
+      <c r="R26" s="4" t="n">
         <v>8150847625</v>
       </c>
     </row>
-    <row r="27" ht="20" customHeight="1" s="10">
+    <row r="27" ht="20" customHeight="1" s="11">
       <c r="A27" s="3" t="n">
         <v>53</v>
       </c>
@@ -1854,11 +1873,11 @@
       <c r="Q27" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="S27" s="4" t="n">
+      <c r="R27" s="4" t="n">
         <v>9866690427</v>
       </c>
     </row>
-    <row r="28" ht="20" customHeight="1" s="10">
+    <row r="28" ht="20" customHeight="1" s="11">
       <c r="A28" s="3" t="n">
         <v>54</v>
       </c>
@@ -1914,11 +1933,11 @@
       <c r="Q28" s="3" t="n">
         <v>31</v>
       </c>
-      <c r="S28" s="4" t="n">
+      <c r="R28" s="4" t="n">
         <v>8050077909</v>
       </c>
     </row>
-    <row r="29" ht="20" customHeight="1" s="10">
+    <row r="29" ht="20" customHeight="1" s="11">
       <c r="A29" s="3" t="n">
         <v>55</v>
       </c>
@@ -1974,11 +1993,11 @@
       <c r="Q29" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="S29" s="4" t="n">
+      <c r="R29" s="4" t="n">
         <v>9980102542</v>
       </c>
     </row>
-    <row r="30" ht="20" customHeight="1" s="10">
+    <row r="30" ht="20" customHeight="1" s="11">
       <c r="A30" s="3" t="n">
         <v>56</v>
       </c>
@@ -2034,11 +2053,11 @@
       <c r="Q30" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="S30" s="5" t="n">
+      <c r="R30" s="5" t="n">
         <v>9611897983</v>
       </c>
     </row>
-    <row r="31" ht="20" customHeight="1" s="10">
+    <row r="31" ht="20" customHeight="1" s="11">
       <c r="A31" s="3" t="n">
         <v>57</v>
       </c>
@@ -2094,11 +2113,11 @@
       <c r="Q31" s="3" t="n">
         <v>33</v>
       </c>
-      <c r="S31" s="4" t="n">
+      <c r="R31" s="4" t="n">
         <v>9242469959</v>
       </c>
     </row>
-    <row r="32" ht="20" customHeight="1" s="10">
+    <row r="32" ht="20" customHeight="1" s="11">
       <c r="A32" s="3" t="n">
         <v>58</v>
       </c>
@@ -2154,11 +2173,11 @@
       <c r="Q32" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="S32" s="4" t="n">
+      <c r="R32" s="4" t="n">
         <v>8618805015</v>
       </c>
     </row>
-    <row r="33" ht="20" customHeight="1" s="10">
+    <row r="33" ht="20" customHeight="1" s="11">
       <c r="A33" s="3" t="n">
         <v>59</v>
       </c>
@@ -2214,11 +2233,11 @@
       <c r="Q33" s="3" t="n">
         <v>24</v>
       </c>
-      <c r="S33" s="4" t="n">
+      <c r="R33" s="4" t="n">
         <v>8971333574</v>
       </c>
     </row>
-    <row r="34" ht="20" customHeight="1" s="10">
+    <row r="34" ht="20" customHeight="1" s="11">
       <c r="A34" s="3" t="n">
         <v>60</v>
       </c>
@@ -2274,11 +2293,11 @@
       <c r="Q34" s="3" t="n">
         <v>26</v>
       </c>
-      <c r="S34" s="4" t="n">
+      <c r="R34" s="4" t="n">
         <v>9966585253</v>
       </c>
     </row>
-    <row r="35" ht="20" customHeight="1" s="10">
+    <row r="35" ht="20" customHeight="1" s="11">
       <c r="A35" s="3" t="n">
         <v>61</v>
       </c>
@@ -2334,11 +2353,16 @@
       <c r="Q35" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="S35" s="5" t="n">
+      <c r="R35" s="5" t="n">
         <v>9353398121</v>
       </c>
-    </row>
-    <row r="36" ht="20" customHeight="1" s="10">
+      <c r="T35" s="17" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="36" ht="20" customHeight="1" s="11">
       <c r="A36" s="3" t="n">
         <v>62</v>
       </c>
@@ -2394,11 +2418,11 @@
       <c r="Q36" s="3" t="n">
         <v>34</v>
       </c>
-      <c r="S36" s="4" t="n">
+      <c r="R36" s="4" t="n">
         <v>9113870017</v>
       </c>
     </row>
-    <row r="37" ht="20" customHeight="1" s="10">
+    <row r="37" ht="20" customHeight="1" s="11">
       <c r="A37" s="3" t="n">
         <v>63</v>
       </c>
@@ -2454,16 +2478,21 @@
       <c r="Q37" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="S37" s="4" t="n">
+      <c r="R37" s="4" t="n">
         <v>7022352395</v>
       </c>
-    </row>
-    <row r="39" ht="20" customHeight="1" s="10"/>
-    <row r="40" ht="20" customHeight="1" s="10"/>
+      <c r="T37" s="17" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="39" ht="20" customHeight="1" s="11"/>
+    <row r="40" ht="20" customHeight="1" s="11"/>
   </sheetData>
   <mergeCells count="13">
     <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:R9"/>
+    <mergeCell ref="P9:Q9"/>
     <mergeCell ref="A6:M6"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="F9:G9"/>
